--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF95C69-5B41-4989-AD34-0CEC093102D1}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7753E2-0592-4BBF-98A0-B5A35CDF242A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -184,11 +184,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -198,6 +235,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +575,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J1" sqref="J1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,20 +602,20 @@
       <c r="H1" s="2">
         <v>3934</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="9">
         <v>3935</v>
       </c>
       <c r="J1" s="1">
-        <v>3932</v>
+        <v>3936</v>
       </c>
       <c r="K1" s="2">
-        <v>3933</v>
+        <v>3937</v>
       </c>
       <c r="L1" s="2">
-        <v>3934</v>
+        <v>3938</v>
       </c>
       <c r="M1" s="3">
-        <v>3935</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -603,20 +643,20 @@
       <c r="H2" s="4">
         <v>31.7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="10">
         <v>38.1</v>
       </c>
       <c r="J2" s="4">
-        <v>40.700000000000003</v>
+        <v>39.6</v>
       </c>
       <c r="K2" s="4">
-        <v>32.5</v>
+        <v>42.4</v>
       </c>
       <c r="L2" s="4">
-        <v>31.7</v>
+        <v>33.4</v>
       </c>
       <c r="M2" s="4">
-        <v>38.1</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -644,20 +684,20 @@
       <c r="H3" s="5">
         <v>29.4</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="11">
         <v>37.200000000000003</v>
       </c>
       <c r="J3" s="5">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="K3" s="5">
-        <v>31.9</v>
+        <v>41.9</v>
       </c>
       <c r="L3" s="5">
-        <v>29.4</v>
+        <v>33.1</v>
       </c>
       <c r="M3" s="5">
-        <v>37.200000000000003</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -685,20 +725,20 @@
       <c r="H4" s="5">
         <v>31.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="11">
         <v>38.200000000000003</v>
       </c>
       <c r="J4" s="5">
-        <v>40.700000000000003</v>
+        <v>41</v>
       </c>
       <c r="K4" s="5">
-        <v>32.6</v>
+        <v>42.1</v>
       </c>
       <c r="L4" s="5">
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="M4" s="5">
-        <v>38.200000000000003</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -726,20 +766,20 @@
       <c r="H5" s="5">
         <v>30.9</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="11">
         <v>38.200000000000003</v>
       </c>
       <c r="J5" s="5">
-        <v>40.299999999999997</v>
+        <v>39.1</v>
       </c>
       <c r="K5" s="5">
-        <v>32.1</v>
+        <v>41</v>
       </c>
       <c r="L5" s="5">
-        <v>30.9</v>
+        <v>34</v>
       </c>
       <c r="M5" s="5">
-        <v>38.200000000000003</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D2102F-664E-4109-9AB4-921CAA45B6CB}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D48A037-57EB-0843-B380-566F5970A2E3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,28 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>D-2</t>
-  </si>
-  <si>
-    <t>D-1</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,74 +68,74 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -154,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -498,251 +488,251 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="3">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
         <v>3920</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <v>3921</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>3922</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>3923</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>3932</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>3933</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="5">
         <v>3934</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="5">
         <v>3935</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="5">
         <v>3936</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="5">
         <v>3937</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="5">
         <v>3938</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="6">
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B2" s="3">
         <v>33.299999999999997</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>39.1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>37.4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>37.1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>40.700000000000003</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>32.5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>31.7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>38.1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>39.6</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>42.4</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>33.4</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>41.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B3" s="2">
         <v>33.700000000000003</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>37.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>37</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>39.6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>31.9</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>29.4</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>39</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>41.9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>33.1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>41.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B4" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>40.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>37.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>37.6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>40.700000000000003</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>32.6</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>31.5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>41</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>42.1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>34.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>43.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B5" s="2">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>39.200000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>40.299999999999997</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>32.1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>30.9</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>39.1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>41</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>34</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B6" s="2">
         <v>35.5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>42</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>39</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>40.9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>33.1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>32.700000000000003</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>40.4</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>40.5</v>
       </c>
     </row>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D48A037-57EB-0843-B380-566F5970A2E3}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D766911B-97FC-C843-BF28-42BECDEB4824}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="9720" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -151,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M7" sqref="B6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,6 +735,47 @@
       </c>
       <c r="M6" s="2">
         <v>40.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B7" s="7">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>38.1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G7" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J7" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K7" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="L7" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="M7" s="7">
+        <v>39.200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D48A037-57EB-0843-B380-566F5970A2E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C871C2B1-C3AB-9544-9EEE-390D1D0AEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="9840" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -151,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,6 +731,47 @@
       </c>
       <c r="M6" s="2">
         <v>40.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B7" s="7">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>38.1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G7" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J7" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K7" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="L7" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="M7" s="7">
+        <v>39.200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/PFAS_met_cage/VQC R work/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C871C2B1-C3AB-9544-9EEE-390D1D0AEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C871C2B1-C3AB-9544-9EEE-390D1D0AEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37334029-6246-4B8B-AC7E-1EE9AE13710F}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="9840" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,7 +147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,12 +484,15 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4">
         <v>3920</v>
       </c>
@@ -528,7 +530,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45736</v>
       </c>
@@ -569,7 +571,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45737</v>
       </c>
@@ -610,7 +612,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45741</v>
       </c>
@@ -651,7 +653,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45742</v>
       </c>
@@ -692,7 +694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45748</v>
       </c>
@@ -733,44 +735,44 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45749</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>35</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>38.1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>37.9</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="2">
         <v>39.200000000000003</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <v>32.4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="2">
         <v>31.3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="2">
         <v>36.299999999999997</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="2">
         <v>39.299999999999997</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="2">
         <v>31.7</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="2">
         <v>39.200000000000003</v>
       </c>
     </row>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/PFAS_met_cage/VQC R work/Data Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C871C2B1-C3AB-9544-9EEE-390D1D0AEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37334029-6246-4B8B-AC7E-1EE9AE13710F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D766911B-97FC-C843-BF28-42BECDEB4824}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="9720" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,6 +163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,15 +489,12 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M7" sqref="B6:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4">
         <v>3920</v>
       </c>
@@ -530,7 +532,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45736</v>
       </c>
@@ -571,7 +573,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45737</v>
       </c>
@@ -612,7 +614,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45741</v>
       </c>
@@ -653,7 +655,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45742</v>
       </c>
@@ -694,7 +696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45748</v>
       </c>
@@ -735,44 +737,44 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45749</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>35</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>38.1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>37.9</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="7">
         <v>39.200000000000003</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <v>32.4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>31.3</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>38.200000000000003</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>36.299999999999997</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="7">
         <v>39.299999999999997</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="7">
         <v>31.7</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="7">
         <v>39.200000000000003</v>
       </c>
     </row>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D766911B-97FC-C843-BF28-42BECDEB4824}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B29D558C-8A10-1B42-9762-F7F976AD25FC}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="9720" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="4620" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,7 +147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,10 +162,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="B6:M7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,41 +736,82 @@
       <c r="A7" s="1">
         <v>45749</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>35</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>38.1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>37.9</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>39.200000000000003</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>32.4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>31.3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>38.200000000000003</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>36.299999999999997</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="3">
         <v>31.7</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="3">
         <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B8" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>39.1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J8" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="K8" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>34.799999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B29D558C-8A10-1B42-9762-F7F976AD25FC}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7951DD9-A9AE-124C-B47A-671ABE9AE737}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="4620" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -812,6 +812,47 @@
       </c>
       <c r="M8" s="2">
         <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B9" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L9" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>34.299999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7951DD9-A9AE-124C-B47A-671ABE9AE737}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C4929F-A34A-B44F-B901-1643EEB9AC99}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="4620" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,6 +853,113 @@
       </c>
       <c r="M9" s="2">
         <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L10" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="M10" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B11" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C11" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G11" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="H11" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J11" s="2">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="L11" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="M11" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F12" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G12" s="2">
+        <v>33.1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="M12" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/PFAS_met_cage/VQC R work/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7951DD9-A9AE-124C-B47A-671ABE9AE737}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD242B2D-6B47-48E0-9C7C-682C489FFF55}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="4620" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,15 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,6 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,15 +489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4">
         <v>3920</v>
       </c>
@@ -527,7 +538,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45736</v>
       </c>
@@ -568,7 +579,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45737</v>
       </c>
@@ -609,7 +620,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45741</v>
       </c>
@@ -650,7 +661,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45742</v>
       </c>
@@ -691,7 +702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45748</v>
       </c>
@@ -732,7 +743,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45749</v>
       </c>
@@ -773,7 +784,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45755</v>
       </c>
@@ -814,7 +825,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45756</v>
       </c>
@@ -853,6 +864,113 @@
       </c>
       <c r="M9" s="2">
         <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L10" s="7">
+        <v>27.7</v>
+      </c>
+      <c r="M10" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B11" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C11" s="7">
+        <v>41.3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>40.1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G11" s="7">
+        <v>32.9</v>
+      </c>
+      <c r="H11" s="7">
+        <v>31.8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J11" s="7">
+        <v>31</v>
+      </c>
+      <c r="K11" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="L11" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="M11" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B12" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42.1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F12" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G12" s="7">
+        <v>33.1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>32.6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>37.1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="K12" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="L12" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="M12" s="7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/PFAS_met_cage/VQC R work/Data Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD242B2D-6B47-48E0-9C7C-682C489FFF55}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8D1FB3-A29B-AA43-AC23-F7EA59D5088E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="4620" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -154,7 +147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,15 +484,12 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4">
         <v>3920</v>
       </c>
@@ -538,7 +527,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45736</v>
       </c>
@@ -579,7 +568,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45737</v>
       </c>
@@ -620,7 +609,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45741</v>
       </c>
@@ -661,7 +650,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45742</v>
       </c>
@@ -702,7 +691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45748</v>
       </c>
@@ -743,7 +732,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45749</v>
       </c>
@@ -784,7 +773,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45755</v>
       </c>
@@ -825,7 +814,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45756</v>
       </c>
@@ -866,110 +855,110 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45757</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>31.2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="2">
         <v>27.7</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45758</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="2">
         <v>36.299999999999997</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>41.3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2">
         <v>38.6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>40.1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="2">
         <v>32.9</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="2">
         <v>31.8</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="2">
         <v>31</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="2">
         <v>32.4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="2">
         <v>26.7</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45761</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="2">
         <v>36.299999999999997</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="2">
         <v>42.1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="2">
         <v>38.6</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>40.200000000000003</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2">
         <v>33.1</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>32.6</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="2">
         <v>37.1</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="2">
         <v>27.8</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="2">
         <v>28.5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="2">
         <v>24.8</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="2">
         <v>30</v>
       </c>
     </row>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8D1FB3-A29B-AA43-AC23-F7EA59D5088E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C35DF049-1A33-C149-B6CA-0A5C6382B120}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="4620" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,6 +962,88 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F13" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="H13" s="2">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="M13" s="2">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F14" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="L14" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="M14" s="2">
+        <v>30.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_BW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C35DF049-1A33-C149-B6CA-0A5C6382B120}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0108232-F003-F74A-A655-12D9DC9B1139}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="4620" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="4520" windowWidth="27220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -135,11 +135,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1046,7 @@
       <c r="H14" s="2">
         <v>31.5</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
         <v>37.4</v>
       </c>
       <c r="J14" s="2">
@@ -1042,6 +1060,58 @@
       </c>
       <c r="M14" s="2">
         <v>30.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B15" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43.1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G15" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H15" s="2">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B16" s="2">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>37.9</v>
       </c>
     </row>
   </sheetData>
